--- a/m5/src/data/demo2/apart6.xlsx
+++ b/m5/src/data/demo2/apart6.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -430,95 +430,111 @@
         <v>42370</v>
       </c>
       <c r="B1" t="n">
-        <v>0.41012938333</v>
+        <v>1081.349133319</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>42370.25</v>
+        <v>42370.5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.671219749989</v>
+        <v>1563.837849996</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>42370.5</v>
+        <v>42371</v>
       </c>
       <c r="B3" t="n">
-        <v>0.7519152499990001</v>
+        <v>1207.847016665</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>42370.75</v>
+        <v>42371.5</v>
       </c>
       <c r="B4" t="n">
-        <v>0.811922599997</v>
+        <v>1598.682750005</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>42371</v>
+        <v>42372</v>
       </c>
       <c r="B5" t="n">
-        <v>0.569689016662</v>
+        <v>1326.937300005</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>42371.25</v>
+        <v>42372.5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.638158000003</v>
+        <v>1554.268583328</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>42371.5</v>
+        <v>42373</v>
       </c>
       <c r="B7" t="n">
-        <v>0.740851216667</v>
+        <v>1084.901483337</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>42371.75</v>
+        <v>42373.5</v>
       </c>
       <c r="B8" t="n">
-        <v>0.857831533338</v>
+        <v>2770.624766658</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>42372</v>
+        <v>42374</v>
       </c>
       <c r="B9" t="n">
-        <v>0.526671800003</v>
+        <v>1624.572983341</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>42372.25</v>
+        <v>42374.5</v>
       </c>
       <c r="B10" t="n">
-        <v>0.800265500002</v>
+        <v>2040.60676665</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>42372.5</v>
+        <v>42375</v>
       </c>
       <c r="B11" t="n">
-        <v>0.719746733329</v>
+        <v>1705.184866676</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>42372.75</v>
+        <v>42375.5</v>
       </c>
       <c r="B12" t="n">
-        <v>0.834521849999</v>
+        <v>2181.375616676</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>42376</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1617.515516658</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>42376.5</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1998.004650014</v>
       </c>
     </row>
   </sheetData>
